--- a/data/variables/ds1/variables.xlsx
+++ b/data/variables/ds1/variables.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$1281</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7531" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7534" uniqueCount="1491">
   <si>
     <t>asys02_g2a</t>
   </si>
@@ -4486,6 +4489,9 @@
   </si>
   <si>
     <t>gsl2008-ds1-goa01o</t>
+  </si>
+  <si>
+    <t>Die Gewichte sind lediglich für den Scienftic Use File und nicht für den Campus Use File geeignet.</t>
   </si>
 </sst>
 </file>
@@ -4845,8 +4851,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:N1281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1287" sqref="C1287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31881,6 +31887,9 @@
       <c r="A1279" t="s">
         <v>1427</v>
       </c>
+      <c r="B1279" t="s">
+        <v>1490</v>
+      </c>
       <c r="D1279" t="s">
         <v>182</v>
       </c>
@@ -31902,6 +31911,9 @@
       <c r="A1280" t="s">
         <v>1428</v>
       </c>
+      <c r="B1280" t="s">
+        <v>1490</v>
+      </c>
       <c r="D1280" t="s">
         <v>182</v>
       </c>
@@ -31923,6 +31935,9 @@
       <c r="A1281" t="s">
         <v>1429</v>
       </c>
+      <c r="B1281" t="s">
+        <v>1490</v>
+      </c>
       <c r="D1281" t="s">
         <v>182</v>
       </c>
@@ -31941,6 +31956,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1281"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/variables/ds1/variables.xlsx
+++ b/data/variables/ds1/variables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4493" uniqueCount="1458">
   <si>
     <t>asys02_g2a</t>
   </si>
@@ -4381,6 +4381,18 @@
   </si>
   <si>
     <t>Diese Variable wurde aus allen möglichen Kombinationen (Schichten) der Variablen asch01_g1a und asys01 gebildet. Im Zuge dessen wurden aufgrund von Fallzahlen &lt; 2 einzelne Schichten zusammengelegt.</t>
+  </si>
+  <si>
+    <t>filterDetails.expression</t>
+  </si>
+  <si>
+    <t>filterDetails.expressionLanguage</t>
+  </si>
+  <si>
+    <t>generationDetails.rule</t>
+  </si>
+  <si>
+    <t>generationDetails.ruleExpressionLanguage</t>
   </si>
 </sst>
 </file>
@@ -4740,8 +4752,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:N1281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4751,11 +4763,13 @@
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="7" width="41.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
     <col min="9" max="9" width="61.140625" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="26.5703125" customWidth="1"/>
+    <col min="12" max="12" width="42.42578125" customWidth="1"/>
     <col min="13" max="13" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4778,13 +4792,24 @@
       <c r="F1" t="s">
         <v>173</v>
       </c>
+      <c r="G1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1455</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J1" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1457</v>
+      </c>
       <c r="M1" t="s">
         <v>176</v>
       </c>
